--- a/data/trans_camb/P16A15-Nacimiento-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Nacimiento-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
